--- a/docs/1.요구사항분석서/요구사항분석서_1차.xlsx
+++ b/docs/1.요구사항분석서/요구사항분석서_1차.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.5152"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8616" tabRatio="579"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8664" tabRatio="579"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet2" sheetId="1" r:id="rId4"/>
@@ -14,118 +14,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
-  <x:si>
-    <x:t>예약 현황에서 '신청중'일때만 취소가능하다.</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
+  <x:si>
+    <x:t>조회시에는 여러번 입출입한 외부차량이 있으면 한번만 조회(상세조회 일 때 상세정보가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자가 투표등록이 가능하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기간을 정해 조회할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세션의 만료는 30분으로 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소는 주문하기 시 설정 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리비 고지서/ 에너지 검침 기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 재확인 필드의 값이 비밀번호 입력값과 다르면 즉각적으로 "비밀번호와 다릅니다" 메시지를 띄운다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반관리비.경비비,청소비,소득비,위탁수수료,음식물수거비,화재보험료,승강기 유지비,세대전기료,공동전기료,tv수신료 세대열요금,전기,온수,난방,가스,당월부과액,납기내금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입주자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박경주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김석현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동 로그인 기능을 제공해줘야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부차량 등록/ 입주 차량 리스트 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부차량 들어온 시간과 나간시간 표시</x:t>
   </x:si>
   <x:si>
     <x:t>ApartFriend 요구분석 기술서</x:t>
   </x:si>
   <x:si>
+    <x:t>첫 필드 - 010, 011,017,019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목과 내용을 작성해야만 등록이 된다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>이름은 20 byte 이내로 입력한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>첫 필드 - 010, 011,017,019</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">인증 ( 카카오 알림톡, 이메일 ) </x:t>
   </x:si>
   <x:si>
+    <x:t>에너지 검침을 직접 입력할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시물을 삭제할 수 있는 권한이 있다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>고객 로그인, 관리자 로그인 탭으로 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>자동 로그인 기능을 제공해줘야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독서실 하위메뉴에는 독서실 좌석 예약/예약 현황/ 예약 확인이 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회시에는 여러번 입출입한 외부차량이 있으면 한번만 조회(상세조회 일 때 상세정보가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 검침을 직접 입력할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투표를 위해서는 SMS 로 본인인증을 진행해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기간을 입력할 수 있어야 한다. (반장, 동대표만 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자는 모든 세대의 에너지검침 기록을 확인할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독서실 예약 현황은 리스트 형태로 본인의 현황이 보인다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리비 내역명, 납기일, 납기전 금액, 납기후 금액, 비고 리스트 형식으로 표시된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디, 비밀번호 찾기</x:t>
+    <x:t>검색기능(전체차량, 동별, 차량번호)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020_04_25</x:t>
   </x:si>
   <x:si>
     <x:t>2개 이상 연동</x:t>
   </x:si>
   <x:si>
+    <x:t>독서실 예약 기능</x:t>
+  </x:si>
+  <x:si>
     <x:t>아이디 중복체크</x:t>
   </x:si>
   <x:si>
-    <x:t>2020_04_25</x:t>
-  </x:si>
-  <x:si>
     <x:t>고객 (아파트입주자)</x:t>
   </x:si>
   <x:si>
+    <x:t>전자투표/ 설문조사</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">아파트 관리자 </x:t>
   </x:si>
   <x:si>
-    <x:t>독서실 예약 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자투표/ 설문조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외부차량 들어온 시간과 나간시간 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목과 내용을 작성해야만 등록이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 재확인 필드의 값이 비밀번호 입력값과 다르면 즉각적으로 "비밀번호와 다릅니다" 메시지를 띄운다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자투표/ 설문조사 는 동대표 선거 등의 투표를 위해 고안한 기능이다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>엑셀다운로드가 가능</x:t>
   </x:si>
   <x:si>
-    <x:t>외부차량 등록/ 입주 차량 리스트 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑셀기능</x:t>
+    <x:t>댓글,대댓글기능 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인쇄버튼-&gt;프린트기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hichart.js</x:t>
   </x:si>
   <x:si>
     <x:t>아파트 스토리
 (http://www.aptstory.kr/home/index.php)</x:t>
   </x:si>
   <x:si>
+    <x:t>관리비 내역명, 납기일, 납기전 금액, 납기후 금액, 비고 리스트 형식으로 표시된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투표기간이 끝이 나면 그 다음날 6시에 해당 대상자에게 결과를 SMS 전송해준다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>휴대전화번호는 필드3개로 나누어받고 첫 필드는 select 박스형태로 제공한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>투표기간이 끝이 나면 그 다음날 6시에 해당 대상자에게 결과를 SMS 전송해준다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>개인정보는 다 암호화 ( 이름, 휴대전화 번호, 이메일 )</x:t>
   </x:si>
   <x:si>
+    <x:t>투표의 제목을 입력할 수 있어야 한다. (반장, 동대표만 가능)</x:t>
+  </x:si>
+  <x:si>
     <x:t>아이디는 영문소문자/숫자, 4~16자 로 사용자 입력을 받는다.</x:t>
   </x:si>
   <x:si>
     <x:t>입주자에는 등급이 존재한다. (일반입주자, 반장, 동대표)</x:t>
   </x:si>
   <x:si>
-    <x:t>투표의 제목을 입력할 수 있어야 한다. (반장, 동대표만 가능)</x:t>
+    <x:t>검침년월, 전기, 수도, 가스, 난방, 온수, 비고(수정,삭제)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독서실 하위메뉴에는 독서실 좌석 예약/예약 현황/ 예약 확인이 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자투표/ 설문조사 는 동대표 선거 등의 투표를 위해 고안한 기능이다.</x:t>
   </x:si>
   <x:si>
     <x:t>비밀번호는 영문 대소문자/숫자/특수문자  3가지 조합, 10자~16자 로 사용자 입력을 받는다.</x:t>
@@ -134,112 +170,82 @@
     <x:t>이메일을 입력을 받는다. 이메일 형식이 아닌경우 "올바를 이메일을 입력하세요" 메시지를 띄운다.</x:t>
   </x:si>
   <x:si>
-    <x:t>일반관리비.경비비,청소비,소득비,위탁수수료,음식물수거비,화재보험료,승강기 유지비,세대전기료,공동전기료,tv수신료 세대열요금,전기,온수,난방,가스,당월부과액,납기내금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검침년월, 전기, 수도, 가스, 난방, 온수, 비고(수정,삭제)</x:t>
+    <x:t>투표를 위해서는 SMS 로 본인인증을 진행해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독서실 예약 현황은 리스트 형태로 본인의 현황이 보인다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리비 내역은 월별로 차트 형태로 나타난다.(꺾은선)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 조회시 본인의 비밀번호를 입력해야 조회된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독서실 좌석 예약에서 예약가능한곳은 '예약가능'이 뜬다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자는 모든 세대의 에너지검침 기록을 확인할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기간을 입력할 수 있어야 한다. (반장, 동대표만 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입주차량을 등록할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디, 비밀번호 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색(회원명,동,호수)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리스트형태로 보여진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 현황에서 '신청중'일때만 취소가능하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약시 신청상태가 되며, 예약 현황으로 간다</x:t>
   </x:si>
   <x:si>
     <x:t>동/호수, 차량모델, 차량번호, 차량등록일/기간</x:t>
   </x:si>
   <x:si>
-    <x:t>세션의 만료는 30분으로 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소는 주문하기 시 설정 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리비 고지서/ 에너지 검침 기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입주자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인쇄버튼-&gt;프린트기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색(회원명,동,호수)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글,대댓글기능 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독서실 좌석 예약에서 예약가능한곳은 '예약가능'이 뜬다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기간을 정해 조회할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약시 신청상태가 되며, 예약 현황으로 간다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시물을 삭제할 수 있는 권한이 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색기능(전체차량, 동별, 차량번호)</x:t>
+    <x:t>카카오톡, 페이스북, 구글, 네이버 계정 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자유게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Doc_01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엑셀기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입주차량 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아파트 관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참고업체</x:t>
   </x:si>
   <x:si>
     <x:t>회원가입 인증</x:t>
   </x:si>
   <x:si>
-    <x:t>자유게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Doc_01</x:t>
-  </x:si>
-  <x:si>
     <x:t>작성일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입주차량 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참고업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아파트 관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 조회시 본인의 비밀번호를 입력해야 조회된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오톡, 페이스북, 구글, 네이버 계정 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hichart.js</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입주차량을 등록할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리스트형태로 보여진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자가 투표등록이 가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리비 내역은 월별로 차트 형태로 나타난다.(꺾은선)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -287,10 +293,6 @@
           <hs:underlineShape val="solid"/>
           <hs:underlineType val="1"/>
           <hs:underlineColor rgb="ff0000ff"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -312,10 +314,6 @@
           <hs:underlineShape val="solid"/>
           <hs:underlineType val="1"/>
           <hs:underlineColor rgb="ff800080"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -344,18 +342,50 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="28"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="12"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="28"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="28"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -804,6 +834,57 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="medium">
         <x:color rgb="ff000000"/>
       </x:left>
@@ -889,7 +970,7 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="thin">
+      <x:left style="medium">
         <x:color rgb="ff000000"/>
       </x:left>
       <x:right style="thin">
@@ -898,6 +979,57 @@
       <x:top style="thin">
         <x:color rgb="ff000000"/>
       </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="medium">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="medium">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
       <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
@@ -909,13 +1041,166 @@
       <x:left style="medium">
         <x:color rgb="ff000000"/>
       </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="medium">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="medium">
+        <x:color rgb="ff000000"/>
+      </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
+      <x:top style="medium">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="medium">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="medium">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="medium">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="medium">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
       <x:top style="thin">
         <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom style="medium">
+      <x:bottom style="thin">
         <x:color rgb="ff000000"/>
       </x:bottom>
       <x:diagonal>
@@ -926,8 +1211,25 @@
       <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
+      <x:left style="medium">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
         <x:color rgb="ff000000"/>
@@ -940,289 +1242,17 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="medium">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="medium">
-        <x:color rgb="ff000000"/>
+      <x:left>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="medium">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="medium">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="medium">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
       <x:top style="medium">
         <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="medium">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="medium">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="medium">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="medium">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="medium">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-      <x:diagonal>
-        <x:color indexed="64"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
       </x:bottom>
       <x:diagonal>
         <x:color indexed="64"/>
@@ -1511,15 +1541,105 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1539,234 +1659,156 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -1786,52 +1828,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1864,13 +1906,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1888,188 +1930,176 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="4">
@@ -2857,8 +2887,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A2:O130"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C130" activeCellId="0" sqref="C130:C130"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="N15" activeCellId="0" sqref="N15:N15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -2872,696 +2902,716 @@
   <x:sheetData>
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="3:11" ht="21">
-      <x:c r="C2" s="48" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D2" s="49"/>
-      <x:c r="E2" s="49"/>
-      <x:c r="F2" s="49"/>
-      <x:c r="G2" s="49"/>
-      <x:c r="H2" s="50"/>
+      <x:c r="C2" s="52" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D2" s="53"/>
+      <x:c r="E2" s="53"/>
+      <x:c r="F2" s="53"/>
+      <x:c r="G2" s="53"/>
+      <x:c r="H2" s="54"/>
       <x:c r="I2" s="25" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J2" s="60" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="K2" s="61"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="J2" s="64" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="K2" s="65"/>
     </x:row>
     <x:row r="3" spans="3:11" ht="20.649999999999999">
-      <x:c r="C3" s="51"/>
-      <x:c r="D3" s="52"/>
-      <x:c r="E3" s="52"/>
-      <x:c r="F3" s="52"/>
-      <x:c r="G3" s="52"/>
-      <x:c r="H3" s="53"/>
+      <x:c r="C3" s="55"/>
+      <x:c r="D3" s="56"/>
+      <x:c r="E3" s="56"/>
+      <x:c r="F3" s="56"/>
+      <x:c r="G3" s="56"/>
+      <x:c r="H3" s="57"/>
       <x:c r="I3" s="26" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="J3" s="62" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="K3" s="63"/>
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J3" s="66" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K3" s="67"/>
     </x:row>
     <x:row r="4" spans="3:11">
-      <x:c r="C4" s="51"/>
-      <x:c r="D4" s="52"/>
-      <x:c r="E4" s="52"/>
-      <x:c r="F4" s="52"/>
-      <x:c r="G4" s="52"/>
-      <x:c r="H4" s="53"/>
-      <x:c r="I4" s="64" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="J4" s="67" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="K4" s="68"/>
+      <x:c r="C4" s="55"/>
+      <x:c r="D4" s="56"/>
+      <x:c r="E4" s="56"/>
+      <x:c r="F4" s="56"/>
+      <x:c r="G4" s="56"/>
+      <x:c r="H4" s="57"/>
+      <x:c r="I4" s="68" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="J4" s="71" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K4" s="72"/>
     </x:row>
     <x:row r="5" spans="3:11">
-      <x:c r="C5" s="51"/>
-      <x:c r="D5" s="52"/>
-      <x:c r="E5" s="52"/>
-      <x:c r="F5" s="52"/>
-      <x:c r="G5" s="52"/>
-      <x:c r="H5" s="53"/>
-      <x:c r="I5" s="64"/>
-      <x:c r="J5" s="69"/>
-      <x:c r="K5" s="70"/>
+      <x:c r="C5" s="55"/>
+      <x:c r="D5" s="56"/>
+      <x:c r="E5" s="56"/>
+      <x:c r="F5" s="56"/>
+      <x:c r="G5" s="56"/>
+      <x:c r="H5" s="57"/>
+      <x:c r="I5" s="68"/>
+      <x:c r="J5" s="73"/>
+      <x:c r="K5" s="74"/>
     </x:row>
     <x:row r="6" spans="3:11">
-      <x:c r="C6" s="51"/>
-      <x:c r="D6" s="52"/>
-      <x:c r="E6" s="52"/>
-      <x:c r="F6" s="52"/>
-      <x:c r="G6" s="52"/>
-      <x:c r="H6" s="53"/>
-      <x:c r="I6" s="64"/>
-      <x:c r="J6" s="69"/>
-      <x:c r="K6" s="70"/>
+      <x:c r="C6" s="55"/>
+      <x:c r="D6" s="56"/>
+      <x:c r="E6" s="56"/>
+      <x:c r="F6" s="56"/>
+      <x:c r="G6" s="56"/>
+      <x:c r="H6" s="57"/>
+      <x:c r="I6" s="68"/>
+      <x:c r="J6" s="73"/>
+      <x:c r="K6" s="74"/>
     </x:row>
     <x:row r="7" spans="3:11">
-      <x:c r="C7" s="54"/>
-      <x:c r="D7" s="55"/>
-      <x:c r="E7" s="55"/>
-      <x:c r="F7" s="55"/>
-      <x:c r="G7" s="55"/>
-      <x:c r="H7" s="56"/>
-      <x:c r="I7" s="65"/>
-      <x:c r="J7" s="69"/>
-      <x:c r="K7" s="70"/>
+      <x:c r="C7" s="58"/>
+      <x:c r="D7" s="59"/>
+      <x:c r="E7" s="59"/>
+      <x:c r="F7" s="59"/>
+      <x:c r="G7" s="59"/>
+      <x:c r="H7" s="60"/>
+      <x:c r="I7" s="69"/>
+      <x:c r="J7" s="73"/>
+      <x:c r="K7" s="74"/>
     </x:row>
     <x:row r="8" spans="3:11">
-      <x:c r="C8" s="57"/>
-      <x:c r="D8" s="58"/>
-      <x:c r="E8" s="58"/>
-      <x:c r="F8" s="58"/>
-      <x:c r="G8" s="58"/>
-      <x:c r="H8" s="59"/>
-      <x:c r="I8" s="66"/>
-      <x:c r="J8" s="71"/>
-      <x:c r="K8" s="72"/>
+      <x:c r="C8" s="61"/>
+      <x:c r="D8" s="62"/>
+      <x:c r="E8" s="62"/>
+      <x:c r="F8" s="62"/>
+      <x:c r="G8" s="62"/>
+      <x:c r="H8" s="63"/>
+      <x:c r="I8" s="70"/>
+      <x:c r="J8" s="75"/>
+      <x:c r="K8" s="76"/>
     </x:row>
     <x:row r="10" spans="3:11" ht="29.149999999999999">
-      <x:c r="C10" s="73" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D10" s="74"/>
-      <x:c r="E10" s="74"/>
-      <x:c r="F10" s="74"/>
-      <x:c r="G10" s="74"/>
-      <x:c r="H10" s="74"/>
-      <x:c r="I10" s="74"/>
-      <x:c r="J10" s="74"/>
-      <x:c r="K10" s="74"/>
-    </x:row>
-    <x:row r="11" ht="17.25" customHeight="1"/>
+      <x:c r="C10" s="77" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D10" s="78"/>
+      <x:c r="E10" s="78"/>
+      <x:c r="F10" s="78"/>
+      <x:c r="G10" s="78"/>
+      <x:c r="H10" s="78"/>
+      <x:c r="I10" s="78"/>
+      <x:c r="J10" s="78"/>
+      <x:c r="K10" s="78"/>
+    </x:row>
+    <x:row r="11" spans="3:3" ht="17.25" customHeight="1">
+      <x:c r="C11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
     <x:row r="12" spans="3:4" ht="16.75">
       <x:c r="C12" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="3:4">
       <x:c r="C13" s="23" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D13" s="46" t="s">
-        <x:v>47</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="3:11" ht="17.149999999999999">
-      <x:c r="C14" s="75" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D14" s="76"/>
-      <x:c r="E14" s="76"/>
-      <x:c r="F14" s="76"/>
-      <x:c r="G14" s="76"/>
-      <x:c r="H14" s="76"/>
-      <x:c r="I14" s="76"/>
+      <x:c r="C14" s="79" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D14" s="80"/>
+      <x:c r="E14" s="80"/>
+      <x:c r="F14" s="80"/>
+      <x:c r="G14" s="80"/>
+      <x:c r="H14" s="80"/>
+      <x:c r="I14" s="80"/>
       <x:c r="J14" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K14" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="3:11">
-      <x:c r="C15" s="77" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D15" s="78"/>
-      <x:c r="E15" s="78"/>
-      <x:c r="F15" s="78"/>
-      <x:c r="G15" s="78"/>
-      <x:c r="H15" s="78"/>
-      <x:c r="I15" s="78"/>
+      <x:c r="C15" s="81" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D15" s="82"/>
+      <x:c r="E15" s="82"/>
+      <x:c r="F15" s="82"/>
+      <x:c r="G15" s="82"/>
+      <x:c r="H15" s="82"/>
+      <x:c r="I15" s="82"/>
       <x:c r="J15" s="34" t="s">
-        <x:v>17</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K15" s="6"/>
     </x:row>
     <x:row r="16" spans="3:11">
-      <x:c r="C16" s="79" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D16" s="80"/>
-      <x:c r="E16" s="80"/>
-      <x:c r="F16" s="80"/>
-      <x:c r="G16" s="80"/>
-      <x:c r="H16" s="80"/>
-      <x:c r="I16" s="80"/>
+      <x:c r="C16" s="83" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D16" s="84"/>
+      <x:c r="E16" s="84"/>
+      <x:c r="F16" s="84"/>
+      <x:c r="G16" s="84"/>
+      <x:c r="H16" s="84"/>
+      <x:c r="I16" s="84"/>
       <x:c r="J16" s="34"/>
       <x:c r="K16" s="6"/>
     </x:row>
     <x:row r="17" spans="3:11">
-      <x:c r="C17" s="81" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D17" s="80"/>
-      <x:c r="E17" s="80"/>
-      <x:c r="F17" s="80"/>
-      <x:c r="G17" s="80"/>
-      <x:c r="H17" s="80"/>
-      <x:c r="I17" s="80"/>
+      <x:c r="C17" s="85" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D17" s="84"/>
+      <x:c r="E17" s="84"/>
+      <x:c r="F17" s="84"/>
+      <x:c r="G17" s="84"/>
+      <x:c r="H17" s="84"/>
+      <x:c r="I17" s="84"/>
       <x:c r="J17" s="5"/>
       <x:c r="K17" s="6"/>
     </x:row>
     <x:row r="18" spans="3:11">
-      <x:c r="C18" s="81" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D18" s="80"/>
-      <x:c r="E18" s="80"/>
-      <x:c r="F18" s="80"/>
-      <x:c r="G18" s="80"/>
-      <x:c r="H18" s="80"/>
-      <x:c r="I18" s="80"/>
+      <x:c r="C18" s="85" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D18" s="84"/>
+      <x:c r="E18" s="84"/>
+      <x:c r="F18" s="84"/>
+      <x:c r="G18" s="84"/>
+      <x:c r="H18" s="84"/>
+      <x:c r="I18" s="84"/>
       <x:c r="J18" s="5"/>
       <x:c r="K18" s="6"/>
     </x:row>
     <x:row r="19" spans="3:11">
-      <x:c r="C19" s="81" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D19" s="82"/>
-      <x:c r="E19" s="82"/>
-      <x:c r="F19" s="82"/>
-      <x:c r="G19" s="82"/>
-      <x:c r="H19" s="82"/>
-      <x:c r="I19" s="82"/>
+      <x:c r="C19" s="85" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D19" s="86"/>
+      <x:c r="E19" s="86"/>
+      <x:c r="F19" s="86"/>
+      <x:c r="G19" s="86"/>
+      <x:c r="H19" s="86"/>
+      <x:c r="I19" s="86"/>
       <x:c r="J19" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K19" s="6"/>
     </x:row>
     <x:row r="20" spans="3:11">
-      <x:c r="C20" s="81" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D20" s="80"/>
-      <x:c r="E20" s="80"/>
-      <x:c r="F20" s="80"/>
-      <x:c r="G20" s="80"/>
-      <x:c r="H20" s="80"/>
-      <x:c r="I20" s="80"/>
+      <x:c r="C20" s="85" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D20" s="84"/>
+      <x:c r="E20" s="84"/>
+      <x:c r="F20" s="84"/>
+      <x:c r="G20" s="84"/>
+      <x:c r="H20" s="84"/>
+      <x:c r="I20" s="84"/>
       <x:c r="J20" s="34"/>
       <x:c r="K20" s="6"/>
     </x:row>
     <x:row r="21" spans="3:11">
-      <x:c r="C21" s="79" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D21" s="80"/>
-      <x:c r="E21" s="80"/>
-      <x:c r="F21" s="80"/>
-      <x:c r="G21" s="80"/>
-      <x:c r="H21" s="80"/>
-      <x:c r="I21" s="80"/>
+      <x:c r="C21" s="83" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D21" s="84"/>
+      <x:c r="E21" s="84"/>
+      <x:c r="F21" s="84"/>
+      <x:c r="G21" s="84"/>
+      <x:c r="H21" s="84"/>
+      <x:c r="I21" s="84"/>
       <x:c r="J21" s="34" t="s">
-        <x:v>43</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K21" s="6"/>
     </x:row>
     <x:row r="22" spans="3:11" ht="16.75">
-      <x:c r="C22" s="83" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D22" s="84"/>
-      <x:c r="E22" s="84"/>
-      <x:c r="F22" s="84"/>
-      <x:c r="G22" s="84"/>
-      <x:c r="H22" s="84"/>
-      <x:c r="I22" s="84"/>
+      <x:c r="C22" s="87" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D22" s="88"/>
+      <x:c r="E22" s="88"/>
+      <x:c r="F22" s="88"/>
+      <x:c r="G22" s="88"/>
+      <x:c r="H22" s="88"/>
+      <x:c r="I22" s="88"/>
       <x:c r="J22" s="35" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K22" s="8"/>
     </x:row>
     <x:row r="23" spans="3:11" ht="16.75" customHeight="1">
-      <x:c r="C23" s="114" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D23" s="115"/>
-      <x:c r="E23" s="115"/>
-      <x:c r="F23" s="115"/>
-      <x:c r="G23" s="115"/>
-      <x:c r="H23" s="116"/>
+      <x:c r="C23" s="122" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D23" s="123"/>
+      <x:c r="E23" s="123"/>
+      <x:c r="F23" s="123"/>
+      <x:c r="G23" s="123"/>
+      <x:c r="H23" s="124"/>
       <x:c r="I23" s="24"/>
       <x:c r="J23" s="35"/>
       <x:c r="K23" s="8"/>
     </x:row>
     <x:row r="24" spans="3:11" ht="16.75">
-      <x:c r="C24" s="117"/>
-      <x:c r="D24" s="118"/>
-      <x:c r="E24" s="118"/>
-      <x:c r="F24" s="118"/>
-      <x:c r="G24" s="118"/>
-      <x:c r="H24" s="118"/>
-      <x:c r="I24" s="84"/>
+      <x:c r="C24" s="91"/>
+      <x:c r="D24" s="92"/>
+      <x:c r="E24" s="92"/>
+      <x:c r="F24" s="92"/>
+      <x:c r="G24" s="92"/>
+      <x:c r="H24" s="92"/>
+      <x:c r="I24" s="88"/>
       <x:c r="J24" s="35"/>
       <x:c r="K24" s="8"/>
     </x:row>
-    <x:row r="25" ht="17.25" customHeight="1"/>
+    <x:row r="25" spans="3:3" ht="17.25" customHeight="1">
+      <x:c r="C25" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
     <x:row r="26" spans="3:4" ht="16.75">
       <x:c r="C26" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="3:4">
       <x:c r="C27" s="23" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D27" s="46" t="s">
-        <x:v>47</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="3:11" ht="17.149999999999999">
-      <x:c r="C28" s="75" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D28" s="76"/>
-      <x:c r="E28" s="76"/>
-      <x:c r="F28" s="76"/>
-      <x:c r="G28" s="76"/>
-      <x:c r="H28" s="76"/>
-      <x:c r="I28" s="76"/>
+      <x:c r="C28" s="79" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D28" s="80"/>
+      <x:c r="E28" s="80"/>
+      <x:c r="F28" s="80"/>
+      <x:c r="G28" s="80"/>
+      <x:c r="H28" s="80"/>
+      <x:c r="I28" s="80"/>
       <x:c r="J28" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K28" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="3:11">
-      <x:c r="C29" s="85" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D29" s="86"/>
-      <x:c r="E29" s="86"/>
-      <x:c r="F29" s="86"/>
-      <x:c r="G29" s="86"/>
-      <x:c r="H29" s="86"/>
-      <x:c r="I29" s="86"/>
+      <x:c r="C29" s="89" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D29" s="90"/>
+      <x:c r="E29" s="90"/>
+      <x:c r="F29" s="90"/>
+      <x:c r="G29" s="90"/>
+      <x:c r="H29" s="90"/>
+      <x:c r="I29" s="90"/>
       <x:c r="J29" s="16"/>
       <x:c r="K29" s="17"/>
     </x:row>
     <x:row r="30" spans="3:11">
-      <x:c r="C30" s="77" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D30" s="78"/>
-      <x:c r="E30" s="78"/>
-      <x:c r="F30" s="78"/>
-      <x:c r="G30" s="78"/>
-      <x:c r="H30" s="78"/>
-      <x:c r="I30" s="78"/>
+      <x:c r="C30" s="81" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D30" s="82"/>
+      <x:c r="E30" s="82"/>
+      <x:c r="F30" s="82"/>
+      <x:c r="G30" s="82"/>
+      <x:c r="H30" s="82"/>
+      <x:c r="I30" s="82"/>
       <x:c r="J30" s="5"/>
       <x:c r="K30" s="6"/>
     </x:row>
     <x:row r="31" spans="3:11">
-      <x:c r="C31" s="77" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D31" s="78"/>
-      <x:c r="E31" s="78"/>
-      <x:c r="F31" s="78"/>
-      <x:c r="G31" s="78"/>
-      <x:c r="H31" s="78"/>
-      <x:c r="I31" s="78"/>
+      <x:c r="C31" s="81" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D31" s="82"/>
+      <x:c r="E31" s="82"/>
+      <x:c r="F31" s="82"/>
+      <x:c r="G31" s="82"/>
+      <x:c r="H31" s="82"/>
+      <x:c r="I31" s="82"/>
       <x:c r="J31" s="5"/>
       <x:c r="K31" s="6"/>
     </x:row>
     <x:row r="32" spans="3:11" ht="17.25" customHeight="1">
-      <x:c r="C32" s="87" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D32" s="88"/>
-      <x:c r="E32" s="88"/>
-      <x:c r="F32" s="88"/>
-      <x:c r="G32" s="88"/>
-      <x:c r="H32" s="88"/>
-      <x:c r="I32" s="88"/>
+      <x:c r="C32" s="99" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D32" s="95"/>
+      <x:c r="E32" s="95"/>
+      <x:c r="F32" s="95"/>
+      <x:c r="G32" s="95"/>
+      <x:c r="H32" s="95"/>
+      <x:c r="I32" s="95"/>
       <x:c r="J32" s="33"/>
       <x:c r="K32" s="36"/>
     </x:row>
     <x:row r="33" spans="3:11" ht="17.25" customHeight="1">
-      <x:c r="C33" s="92" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D33" s="93"/>
-      <x:c r="E33" s="93"/>
-      <x:c r="F33" s="93"/>
-      <x:c r="G33" s="93"/>
-      <x:c r="H33" s="93"/>
-      <x:c r="I33" s="94"/>
+      <x:c r="C33" s="100" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D33" s="101"/>
+      <x:c r="E33" s="101"/>
+      <x:c r="F33" s="101"/>
+      <x:c r="G33" s="101"/>
+      <x:c r="H33" s="101"/>
+      <x:c r="I33" s="102"/>
       <x:c r="J33" s="47"/>
       <x:c r="K33" s="36"/>
     </x:row>
     <x:row r="34" spans="3:11" ht="17.25" customHeight="1">
-      <x:c r="C34" s="114" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D34" s="115"/>
-      <x:c r="E34" s="115"/>
-      <x:c r="F34" s="115"/>
-      <x:c r="G34" s="115"/>
-      <x:c r="H34" s="115"/>
-      <x:c r="I34" s="119"/>
+      <x:c r="C34" s="122" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D34" s="123"/>
+      <x:c r="E34" s="123"/>
+      <x:c r="F34" s="123"/>
+      <x:c r="G34" s="123"/>
+      <x:c r="H34" s="123"/>
+      <x:c r="I34" s="48"/>
       <x:c r="J34" s="47"/>
       <x:c r="K34" s="36"/>
     </x:row>
     <x:row r="35" spans="3:11" ht="16.75">
-      <x:c r="C35" s="120"/>
-      <x:c r="D35" s="121"/>
-      <x:c r="E35" s="121"/>
-      <x:c r="F35" s="121"/>
-      <x:c r="G35" s="121"/>
-      <x:c r="H35" s="121"/>
-      <x:c r="I35" s="88"/>
+      <x:c r="C35" s="93"/>
+      <x:c r="D35" s="94"/>
+      <x:c r="E35" s="94"/>
+      <x:c r="F35" s="94"/>
+      <x:c r="G35" s="94"/>
+      <x:c r="H35" s="94"/>
+      <x:c r="I35" s="95"/>
       <x:c r="J35" s="10"/>
       <x:c r="K35" s="8"/>
     </x:row>
-    <x:row r="37" ht="17.25" customHeight="1"/>
+    <x:row r="37" spans="3:3" ht="17.25" customHeight="1">
+      <x:c r="C37" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
     <x:row r="38" spans="3:4" ht="16.75">
       <x:c r="C38" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D38" s="37" t="s">
-        <x:v>22</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="3:4">
       <x:c r="C39" s="23" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D39" s="46" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="3:11" ht="17.149999999999999">
+      <x:c r="C40" s="79" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D40" s="80"/>
+      <x:c r="E40" s="80"/>
+      <x:c r="F40" s="80"/>
+      <x:c r="G40" s="80"/>
+      <x:c r="H40" s="80"/>
+      <x:c r="I40" s="80"/>
+      <x:c r="J40" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K40" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="3:11">
+      <x:c r="C41" s="96" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D39" s="46" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="3:11" ht="17.149999999999999">
-      <x:c r="C40" s="75" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D40" s="76"/>
-      <x:c r="E40" s="76"/>
-      <x:c r="F40" s="76"/>
-      <x:c r="G40" s="76"/>
-      <x:c r="H40" s="76"/>
-      <x:c r="I40" s="76"/>
-      <x:c r="J40" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="K40" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="3:11">
-      <x:c r="C41" s="89" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D41" s="86"/>
-      <x:c r="E41" s="86"/>
-      <x:c r="F41" s="86"/>
-      <x:c r="G41" s="86"/>
-      <x:c r="H41" s="86"/>
-      <x:c r="I41" s="86"/>
+      <x:c r="D41" s="90"/>
+      <x:c r="E41" s="90"/>
+      <x:c r="F41" s="90"/>
+      <x:c r="G41" s="90"/>
+      <x:c r="H41" s="90"/>
+      <x:c r="I41" s="90"/>
       <x:c r="J41" s="18"/>
       <x:c r="K41" s="17"/>
     </x:row>
     <x:row r="42" spans="3:11">
-      <x:c r="C42" s="90" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D42" s="91"/>
-      <x:c r="E42" s="91"/>
-      <x:c r="F42" s="91"/>
-      <x:c r="G42" s="91"/>
-      <x:c r="H42" s="91"/>
-      <x:c r="I42" s="91"/>
+      <x:c r="C42" s="97" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D42" s="98"/>
+      <x:c r="E42" s="98"/>
+      <x:c r="F42" s="98"/>
+      <x:c r="G42" s="98"/>
+      <x:c r="H42" s="98"/>
+      <x:c r="I42" s="98"/>
       <x:c r="J42" s="9"/>
       <x:c r="K42" s="6"/>
     </x:row>
     <x:row r="43" spans="3:11">
-      <x:c r="C43" s="77" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D43" s="78"/>
-      <x:c r="E43" s="78"/>
-      <x:c r="F43" s="78"/>
-      <x:c r="G43" s="78"/>
-      <x:c r="H43" s="78"/>
-      <x:c r="I43" s="78"/>
+      <x:c r="C43" s="81" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D43" s="82"/>
+      <x:c r="E43" s="82"/>
+      <x:c r="F43" s="82"/>
+      <x:c r="G43" s="82"/>
+      <x:c r="H43" s="82"/>
+      <x:c r="I43" s="82"/>
       <x:c r="J43" s="3"/>
       <x:c r="K43" s="6"/>
     </x:row>
     <x:row r="44" spans="3:11">
-      <x:c r="C44" s="77" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D44" s="78"/>
-      <x:c r="E44" s="78"/>
-      <x:c r="F44" s="78"/>
-      <x:c r="G44" s="78"/>
-      <x:c r="H44" s="78"/>
-      <x:c r="I44" s="78"/>
+      <x:c r="C44" s="81" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D44" s="82"/>
+      <x:c r="E44" s="82"/>
+      <x:c r="F44" s="82"/>
+      <x:c r="G44" s="82"/>
+      <x:c r="H44" s="82"/>
+      <x:c r="I44" s="82"/>
       <x:c r="J44" s="5"/>
       <x:c r="K44" s="6"/>
     </x:row>
     <x:row r="45" spans="3:11">
-      <x:c r="C45" s="123" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D45" s="124"/>
-      <x:c r="E45" s="124"/>
-      <x:c r="F45" s="124"/>
-      <x:c r="G45" s="124"/>
-      <x:c r="H45" s="124"/>
-      <x:c r="I45" s="125"/>
-      <x:c r="J45" s="122"/>
+      <x:c r="C45" s="125" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D45" s="126"/>
+      <x:c r="E45" s="126"/>
+      <x:c r="F45" s="126"/>
+      <x:c r="G45" s="126"/>
+      <x:c r="H45" s="126"/>
+      <x:c r="I45" s="127"/>
+      <x:c r="J45" s="49"/>
       <x:c r="K45" s="36"/>
     </x:row>
     <x:row r="46" spans="3:11" ht="16.75">
-      <x:c r="C46" s="87"/>
-      <x:c r="D46" s="88"/>
-      <x:c r="E46" s="88"/>
-      <x:c r="F46" s="88"/>
-      <x:c r="G46" s="88"/>
-      <x:c r="H46" s="88"/>
-      <x:c r="I46" s="88"/>
+      <x:c r="C46" s="99"/>
+      <x:c r="D46" s="95"/>
+      <x:c r="E46" s="95"/>
+      <x:c r="F46" s="95"/>
+      <x:c r="G46" s="95"/>
+      <x:c r="H46" s="95"/>
+      <x:c r="I46" s="95"/>
       <x:c r="J46" s="7"/>
       <x:c r="K46" s="8"/>
     </x:row>
-    <x:row r="48" ht="17.25" customHeight="1"/>
+    <x:row r="48" spans="3:3" ht="17.25" customHeight="1">
+      <x:c r="C48" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
     <x:row r="49" spans="1:4" ht="16.75">
       <x:c r="A49" s="41"/>
       <x:c r="C49" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D49" s="37" t="s">
-        <x:v>44</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="3:4">
       <x:c r="C50" s="23" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D50" s="46" t="s">
-        <x:v>47</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="3:11" ht="17.149999999999999">
-      <x:c r="C51" s="75" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D51" s="76"/>
-      <x:c r="E51" s="76"/>
-      <x:c r="F51" s="76"/>
-      <x:c r="G51" s="76"/>
-      <x:c r="H51" s="76"/>
-      <x:c r="I51" s="76"/>
+      <x:c r="C51" s="79" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D51" s="80"/>
+      <x:c r="E51" s="80"/>
+      <x:c r="F51" s="80"/>
+      <x:c r="G51" s="80"/>
+      <x:c r="H51" s="80"/>
+      <x:c r="I51" s="80"/>
       <x:c r="J51" s="20" t="s">
-        <x:v>45</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K51" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="3:11">
-      <x:c r="C52" s="89" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D52" s="86"/>
-      <x:c r="E52" s="86"/>
-      <x:c r="F52" s="86"/>
-      <x:c r="G52" s="86"/>
-      <x:c r="H52" s="86"/>
-      <x:c r="I52" s="86"/>
+      <x:c r="C52" s="96" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D52" s="90"/>
+      <x:c r="E52" s="90"/>
+      <x:c r="F52" s="90"/>
+      <x:c r="G52" s="90"/>
+      <x:c r="H52" s="90"/>
+      <x:c r="I52" s="90"/>
       <x:c r="J52" s="19"/>
       <x:c r="K52" s="17"/>
     </x:row>
     <x:row r="53" spans="3:11">
-      <x:c r="C53" s="90" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D53" s="91"/>
-      <x:c r="E53" s="91"/>
-      <x:c r="F53" s="91"/>
-      <x:c r="G53" s="91"/>
-      <x:c r="H53" s="91"/>
-      <x:c r="I53" s="91"/>
+      <x:c r="C53" s="97" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D53" s="98"/>
+      <x:c r="E53" s="98"/>
+      <x:c r="F53" s="98"/>
+      <x:c r="G53" s="98"/>
+      <x:c r="H53" s="98"/>
+      <x:c r="I53" s="98"/>
       <x:c r="J53" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K53" s="6"/>
     </x:row>
     <x:row r="54" spans="3:11">
-      <x:c r="C54" s="96" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D54" s="97"/>
-      <x:c r="E54" s="97"/>
-      <x:c r="F54" s="97"/>
-      <x:c r="G54" s="97"/>
-      <x:c r="H54" s="97"/>
-      <x:c r="I54" s="98"/>
+      <x:c r="C54" s="104" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D54" s="105"/>
+      <x:c r="E54" s="105"/>
+      <x:c r="F54" s="105"/>
+      <x:c r="G54" s="105"/>
+      <x:c r="H54" s="105"/>
+      <x:c r="I54" s="106"/>
       <x:c r="J54" s="45"/>
       <x:c r="K54" s="6"/>
     </x:row>
     <x:row r="55" spans="3:11">
-      <x:c r="C55" s="96" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D55" s="97"/>
-      <x:c r="E55" s="97"/>
-      <x:c r="F55" s="97"/>
-      <x:c r="G55" s="97"/>
-      <x:c r="H55" s="97"/>
-      <x:c r="I55" s="98"/>
+      <x:c r="C55" s="104" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D55" s="105"/>
+      <x:c r="E55" s="105"/>
+      <x:c r="F55" s="105"/>
+      <x:c r="G55" s="105"/>
+      <x:c r="H55" s="105"/>
+      <x:c r="I55" s="106"/>
       <x:c r="J55" s="45"/>
       <x:c r="K55" s="6"/>
     </x:row>
     <x:row r="56" spans="3:11">
-      <x:c r="C56" s="77" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D56" s="78"/>
-      <x:c r="E56" s="78"/>
-      <x:c r="F56" s="78"/>
-      <x:c r="G56" s="78"/>
-      <x:c r="H56" s="78"/>
-      <x:c r="I56" s="78"/>
+      <x:c r="C56" s="81" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D56" s="82"/>
+      <x:c r="E56" s="82"/>
+      <x:c r="F56" s="82"/>
+      <x:c r="G56" s="82"/>
+      <x:c r="H56" s="82"/>
+      <x:c r="I56" s="82"/>
       <x:c r="J56" s="11"/>
       <x:c r="K56" s="6"/>
     </x:row>
     <x:row r="57" spans="3:11">
-      <x:c r="C57" s="123" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D57" s="124"/>
-      <x:c r="E57" s="124"/>
-      <x:c r="F57" s="124"/>
-      <x:c r="G57" s="124"/>
-      <x:c r="H57" s="124"/>
-      <x:c r="I57" s="125"/>
-      <x:c r="J57" s="126"/>
+      <x:c r="C57" s="125" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D57" s="126"/>
+      <x:c r="E57" s="126"/>
+      <x:c r="F57" s="126"/>
+      <x:c r="G57" s="126"/>
+      <x:c r="H57" s="126"/>
+      <x:c r="I57" s="127"/>
+      <x:c r="J57" s="50"/>
       <x:c r="K57" s="36"/>
     </x:row>
     <x:row r="58" spans="3:11" ht="16.75">
-      <x:c r="C58" s="95"/>
-      <x:c r="D58" s="88"/>
-      <x:c r="E58" s="88"/>
-      <x:c r="F58" s="88"/>
-      <x:c r="G58" s="88"/>
-      <x:c r="H58" s="88"/>
-      <x:c r="I58" s="88"/>
+      <x:c r="C58" s="103"/>
+      <x:c r="D58" s="95"/>
+      <x:c r="E58" s="95"/>
+      <x:c r="F58" s="95"/>
+      <x:c r="G58" s="95"/>
+      <x:c r="H58" s="95"/>
+      <x:c r="I58" s="95"/>
       <x:c r="J58" s="12"/>
       <x:c r="K58" s="8"/>
     </x:row>
-    <x:row r="60" ht="17.25" customHeight="1"/>
+    <x:row r="60" spans="3:3" ht="17.25" customHeight="1">
+      <x:c r="C60" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
     <x:row r="61" spans="1:4" ht="16.75">
       <x:c r="A61" s="42"/>
       <x:c r="C61" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D61" s="37" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="3:4">
       <x:c r="C62" s="23" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D62" s="46" t="s">
-        <x:v>47</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="3:11" ht="17.149999999999999">
-      <x:c r="C63" s="75" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D63" s="76"/>
-      <x:c r="E63" s="76"/>
-      <x:c r="F63" s="76"/>
-      <x:c r="G63" s="76"/>
-      <x:c r="H63" s="76"/>
-      <x:c r="I63" s="76"/>
+      <x:c r="C63" s="79" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D63" s="80"/>
+      <x:c r="E63" s="80"/>
+      <x:c r="F63" s="80"/>
+      <x:c r="G63" s="80"/>
+      <x:c r="H63" s="80"/>
+      <x:c r="I63" s="80"/>
       <x:c r="J63" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K63" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="3:11">
-      <x:c r="C64" s="89" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D64" s="86"/>
-      <x:c r="E64" s="86"/>
-      <x:c r="F64" s="86"/>
-      <x:c r="G64" s="86"/>
-      <x:c r="H64" s="86"/>
-      <x:c r="I64" s="86"/>
+      <x:c r="C64" s="96" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D64" s="90"/>
+      <x:c r="E64" s="90"/>
+      <x:c r="F64" s="90"/>
+      <x:c r="G64" s="90"/>
+      <x:c r="H64" s="90"/>
+      <x:c r="I64" s="90"/>
       <x:c r="J64" s="32"/>
       <x:c r="K64" s="17"/>
     </x:row>
     <x:row r="65" spans="3:15">
-      <x:c r="C65" s="90" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D65" s="91"/>
-      <x:c r="E65" s="91"/>
-      <x:c r="F65" s="91"/>
-      <x:c r="G65" s="91"/>
-      <x:c r="H65" s="91"/>
-      <x:c r="I65" s="91"/>
+      <x:c r="C65" s="97" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D65" s="98"/>
+      <x:c r="E65" s="98"/>
+      <x:c r="F65" s="98"/>
+      <x:c r="G65" s="98"/>
+      <x:c r="H65" s="98"/>
+      <x:c r="I65" s="98"/>
       <x:c r="J65" s="39"/>
       <x:c r="K65" s="38"/>
       <x:c r="L65" s="13"/>
@@ -3570,13 +3620,13 @@
       <x:c r="O65" s="13"/>
     </x:row>
     <x:row r="66" spans="3:11">
-      <x:c r="C66" s="77"/>
-      <x:c r="D66" s="78"/>
-      <x:c r="E66" s="78"/>
-      <x:c r="F66" s="78"/>
-      <x:c r="G66" s="78"/>
-      <x:c r="H66" s="78"/>
-      <x:c r="I66" s="78"/>
+      <x:c r="C66" s="81"/>
+      <x:c r="D66" s="82"/>
+      <x:c r="E66" s="82"/>
+      <x:c r="F66" s="82"/>
+      <x:c r="G66" s="82"/>
+      <x:c r="H66" s="82"/>
+      <x:c r="I66" s="82"/>
       <x:c r="J66" s="40"/>
       <x:c r="K66" s="6"/>
     </x:row>
@@ -3592,7 +3642,9 @@
       <x:c r="K67" s="29"/>
     </x:row>
     <x:row r="68" spans="3:11">
-      <x:c r="C68" s="27"/>
+      <x:c r="C68" s="27" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="D68" s="27"/>
       <x:c r="E68" s="27"/>
       <x:c r="F68" s="27"/>
@@ -3605,110 +3657,110 @@
     <x:row r="69" spans="1:4" ht="16.75">
       <x:c r="A69" s="42"/>
       <x:c r="C69" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D69" s="37" t="s">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="3:4">
       <x:c r="C70" s="23" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D70" s="46" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="3:11" ht="17.149999999999999">
+      <x:c r="C71" s="79" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D71" s="80"/>
+      <x:c r="E71" s="80"/>
+      <x:c r="F71" s="80"/>
+      <x:c r="G71" s="80"/>
+      <x:c r="H71" s="80"/>
+      <x:c r="I71" s="80"/>
+      <x:c r="J71" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K71" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="3:11">
+      <x:c r="C72" s="96" t="s">
         <x:v>47</x:v>
       </x:c>
-    </x:row>
-    <x:row r="71" spans="3:11" ht="17.149999999999999">
-      <x:c r="C71" s="75" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D71" s="76"/>
-      <x:c r="E71" s="76"/>
-      <x:c r="F71" s="76"/>
-      <x:c r="G71" s="76"/>
-      <x:c r="H71" s="76"/>
-      <x:c r="I71" s="76"/>
-      <x:c r="J71" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="K71" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="3:11">
-      <x:c r="C72" s="89" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D72" s="86"/>
-      <x:c r="E72" s="86"/>
-      <x:c r="F72" s="86"/>
-      <x:c r="G72" s="86"/>
-      <x:c r="H72" s="86"/>
-      <x:c r="I72" s="86"/>
+      <x:c r="D72" s="90"/>
+      <x:c r="E72" s="90"/>
+      <x:c r="F72" s="90"/>
+      <x:c r="G72" s="90"/>
+      <x:c r="H72" s="90"/>
+      <x:c r="I72" s="90"/>
       <x:c r="J72" s="21"/>
       <x:c r="K72" s="17"/>
     </x:row>
     <x:row r="73" spans="3:11">
-      <x:c r="C73" s="90" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D73" s="91"/>
-      <x:c r="E73" s="91"/>
-      <x:c r="F73" s="91"/>
-      <x:c r="G73" s="91"/>
-      <x:c r="H73" s="91"/>
-      <x:c r="I73" s="91"/>
+      <x:c r="C73" s="97" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D73" s="98"/>
+      <x:c r="E73" s="98"/>
+      <x:c r="F73" s="98"/>
+      <x:c r="G73" s="98"/>
+      <x:c r="H73" s="98"/>
+      <x:c r="I73" s="98"/>
       <x:c r="J73" s="40"/>
       <x:c r="K73" s="6"/>
     </x:row>
     <x:row r="74" spans="3:11">
-      <x:c r="C74" s="99" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D74" s="78"/>
-      <x:c r="E74" s="78"/>
-      <x:c r="F74" s="78"/>
-      <x:c r="G74" s="78"/>
-      <x:c r="H74" s="78"/>
-      <x:c r="I74" s="78"/>
+      <x:c r="C74" s="107" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D74" s="82"/>
+      <x:c r="E74" s="82"/>
+      <x:c r="F74" s="82"/>
+      <x:c r="G74" s="82"/>
+      <x:c r="H74" s="82"/>
+      <x:c r="I74" s="82"/>
       <x:c r="J74" s="9"/>
       <x:c r="K74" s="6"/>
     </x:row>
     <x:row r="75" spans="3:11">
-      <x:c r="C75" s="99" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D75" s="78"/>
-      <x:c r="E75" s="78"/>
-      <x:c r="F75" s="78"/>
-      <x:c r="G75" s="78"/>
-      <x:c r="H75" s="78"/>
-      <x:c r="I75" s="78"/>
+      <x:c r="C75" s="107" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D75" s="82"/>
+      <x:c r="E75" s="82"/>
+      <x:c r="F75" s="82"/>
+      <x:c r="G75" s="82"/>
+      <x:c r="H75" s="82"/>
+      <x:c r="I75" s="82"/>
       <x:c r="J75" s="9"/>
       <x:c r="K75" s="6"/>
     </x:row>
     <x:row r="76" spans="3:11">
-      <x:c r="C76" s="123" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D76" s="124"/>
-      <x:c r="E76" s="124"/>
-      <x:c r="F76" s="124"/>
-      <x:c r="G76" s="124"/>
-      <x:c r="H76" s="124"/>
-      <x:c r="I76" s="125"/>
-      <x:c r="J76" s="127"/>
+      <x:c r="C76" s="125" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D76" s="126"/>
+      <x:c r="E76" s="126"/>
+      <x:c r="F76" s="126"/>
+      <x:c r="G76" s="126"/>
+      <x:c r="H76" s="126"/>
+      <x:c r="I76" s="127"/>
+      <x:c r="J76" s="51"/>
       <x:c r="K76" s="36"/>
     </x:row>
     <x:row r="77" spans="3:11" ht="16.75">
-      <x:c r="C77" s="95"/>
-      <x:c r="D77" s="88"/>
-      <x:c r="E77" s="88"/>
-      <x:c r="F77" s="88"/>
-      <x:c r="G77" s="88"/>
-      <x:c r="H77" s="88"/>
-      <x:c r="I77" s="88"/>
+      <x:c r="C77" s="103"/>
+      <x:c r="D77" s="95"/>
+      <x:c r="E77" s="95"/>
+      <x:c r="F77" s="95"/>
+      <x:c r="G77" s="95"/>
+      <x:c r="H77" s="95"/>
+      <x:c r="I77" s="95"/>
       <x:c r="J77" s="24"/>
       <x:c r="K77" s="8"/>
     </x:row>
@@ -3724,7 +3776,9 @@
       <x:c r="K78" s="29"/>
     </x:row>
     <x:row r="79" spans="3:11">
-      <x:c r="C79" s="27"/>
+      <x:c r="C79" s="27" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="D79" s="27"/>
       <x:c r="E79" s="27"/>
       <x:c r="F79" s="27"/>
@@ -3737,84 +3791,84 @@
     <x:row r="80" spans="1:4" ht="16.75">
       <x:c r="A80" s="41"/>
       <x:c r="C80" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D80" s="37" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="3:4">
       <x:c r="C81" s="23" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D81" s="46" t="s">
-        <x:v>47</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="3:11" ht="17.149999999999999">
-      <x:c r="C82" s="100" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D82" s="101"/>
-      <x:c r="E82" s="101"/>
-      <x:c r="F82" s="101"/>
-      <x:c r="G82" s="101"/>
-      <x:c r="H82" s="101"/>
-      <x:c r="I82" s="102"/>
+      <x:c r="C82" s="108" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D82" s="109"/>
+      <x:c r="E82" s="109"/>
+      <x:c r="F82" s="109"/>
+      <x:c r="G82" s="109"/>
+      <x:c r="H82" s="109"/>
+      <x:c r="I82" s="110"/>
       <x:c r="J82" s="43" t="s">
-        <x:v>45</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K82" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="3:11" ht="16.75">
-      <x:c r="C83" s="103" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D83" s="104"/>
-      <x:c r="E83" s="104"/>
-      <x:c r="F83" s="104"/>
-      <x:c r="G83" s="104"/>
-      <x:c r="H83" s="104"/>
-      <x:c r="I83" s="105"/>
+      <x:c r="C83" s="111" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D83" s="112"/>
+      <x:c r="E83" s="112"/>
+      <x:c r="F83" s="112"/>
+      <x:c r="G83" s="112"/>
+      <x:c r="H83" s="112"/>
+      <x:c r="I83" s="113"/>
       <x:c r="J83" s="21"/>
       <x:c r="K83" s="17"/>
     </x:row>
     <x:row r="84" spans="3:11">
-      <x:c r="C84" s="106" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D84" s="107"/>
-      <x:c r="E84" s="107"/>
-      <x:c r="F84" s="107"/>
-      <x:c r="G84" s="107"/>
-      <x:c r="H84" s="107"/>
-      <x:c r="I84" s="108"/>
+      <x:c r="C84" s="114" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D84" s="115"/>
+      <x:c r="E84" s="115"/>
+      <x:c r="F84" s="115"/>
+      <x:c r="G84" s="115"/>
+      <x:c r="H84" s="115"/>
+      <x:c r="I84" s="116"/>
       <x:c r="J84" s="44"/>
       <x:c r="K84" s="6"/>
     </x:row>
     <x:row r="85" spans="3:11">
-      <x:c r="C85" s="109" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D85" s="110"/>
-      <x:c r="E85" s="110"/>
-      <x:c r="F85" s="110"/>
-      <x:c r="G85" s="110"/>
-      <x:c r="H85" s="110"/>
-      <x:c r="I85" s="111"/>
+      <x:c r="C85" s="117" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D85" s="118"/>
+      <x:c r="E85" s="118"/>
+      <x:c r="F85" s="118"/>
+      <x:c r="G85" s="118"/>
+      <x:c r="H85" s="118"/>
+      <x:c r="I85" s="119"/>
       <x:c r="J85" s="44"/>
       <x:c r="K85" s="6"/>
     </x:row>
     <x:row r="86" spans="3:11">
-      <x:c r="C86" s="99"/>
-      <x:c r="D86" s="78"/>
-      <x:c r="E86" s="78"/>
-      <x:c r="F86" s="78"/>
-      <x:c r="G86" s="78"/>
-      <x:c r="H86" s="78"/>
-      <x:c r="I86" s="78"/>
+      <x:c r="C86" s="107"/>
+      <x:c r="D86" s="82"/>
+      <x:c r="E86" s="82"/>
+      <x:c r="F86" s="82"/>
+      <x:c r="G86" s="82"/>
+      <x:c r="H86" s="82"/>
+      <x:c r="I86" s="82"/>
       <x:c r="J86" s="9"/>
       <x:c r="K86" s="6"/>
     </x:row>
@@ -3841,73 +3895,77 @@
       <x:c r="K88" s="29"/>
     </x:row>
     <x:row r="89" spans="3:11" ht="29.149999999999999">
-      <x:c r="C89" s="73" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D89" s="74"/>
-      <x:c r="E89" s="74"/>
-      <x:c r="F89" s="74"/>
-      <x:c r="G89" s="74"/>
-      <x:c r="H89" s="74"/>
-      <x:c r="I89" s="74"/>
-      <x:c r="J89" s="74"/>
-      <x:c r="K89" s="74"/>
-    </x:row>
-    <x:row r="90" ht="17.25" customHeight="1"/>
+      <x:c r="C89" s="77" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D89" s="78"/>
+      <x:c r="E89" s="78"/>
+      <x:c r="F89" s="78"/>
+      <x:c r="G89" s="78"/>
+      <x:c r="H89" s="78"/>
+      <x:c r="I89" s="78"/>
+      <x:c r="J89" s="78"/>
+      <x:c r="K89" s="78"/>
+    </x:row>
+    <x:row r="90" spans="3:3" ht="17.25" customHeight="1">
+      <x:c r="C90" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
     <x:row r="91" spans="3:4" ht="16.75">
       <x:c r="C91" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D91" s="37" t="s">
-        <x:v>22</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="3:4">
       <x:c r="C92" s="23" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D92" s="46" t="s">
-        <x:v>67</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="3:11" ht="17.149999999999999">
-      <x:c r="C93" s="75" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D93" s="76"/>
-      <x:c r="E93" s="76"/>
-      <x:c r="F93" s="76"/>
-      <x:c r="G93" s="76"/>
-      <x:c r="H93" s="76"/>
-      <x:c r="I93" s="76"/>
+      <x:c r="C93" s="79" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D93" s="80"/>
+      <x:c r="E93" s="80"/>
+      <x:c r="F93" s="80"/>
+      <x:c r="G93" s="80"/>
+      <x:c r="H93" s="80"/>
+      <x:c r="I93" s="80"/>
       <x:c r="J93" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K93" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="3:11">
-      <x:c r="C94" s="85" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D94" s="86"/>
-      <x:c r="E94" s="86"/>
-      <x:c r="F94" s="86"/>
-      <x:c r="G94" s="86"/>
-      <x:c r="H94" s="86"/>
-      <x:c r="I94" s="86"/>
+      <x:c r="C94" s="89" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D94" s="90"/>
+      <x:c r="E94" s="90"/>
+      <x:c r="F94" s="90"/>
+      <x:c r="G94" s="90"/>
+      <x:c r="H94" s="90"/>
+      <x:c r="I94" s="90"/>
       <x:c r="J94" s="18"/>
       <x:c r="K94" s="17"/>
     </x:row>
     <x:row r="95" spans="3:11">
-      <x:c r="C95" s="81"/>
-      <x:c r="D95" s="80"/>
-      <x:c r="E95" s="80"/>
-      <x:c r="F95" s="80"/>
-      <x:c r="G95" s="80"/>
-      <x:c r="H95" s="80"/>
-      <x:c r="I95" s="80"/>
+      <x:c r="C95" s="85"/>
+      <x:c r="D95" s="84"/>
+      <x:c r="E95" s="84"/>
+      <x:c r="F95" s="84"/>
+      <x:c r="G95" s="84"/>
+      <x:c r="H95" s="84"/>
+      <x:c r="I95" s="84"/>
       <x:c r="J95" s="14"/>
       <x:c r="K95" s="6"/>
     </x:row>
@@ -3923,7 +3981,9 @@
       <x:c r="K96" s="29"/>
     </x:row>
     <x:row r="97" spans="3:11">
-      <x:c r="C97" s="27"/>
+      <x:c r="C97" s="27" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="D97" s="27"/>
       <x:c r="E97" s="27"/>
       <x:c r="F97" s="27"/>
@@ -3935,219 +3995,224 @@
     </x:row>
     <x:row r="98" spans="3:4" ht="16.75">
       <x:c r="C98" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D98" s="37" t="s">
-        <x:v>44</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="3:4">
       <x:c r="C99" s="23" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D99" s="46" t="s">
-        <x:v>67</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="3:11" ht="17.149999999999999">
-      <x:c r="C100" s="75" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D100" s="76"/>
-      <x:c r="E100" s="76"/>
-      <x:c r="F100" s="76"/>
-      <x:c r="G100" s="76"/>
-      <x:c r="H100" s="76"/>
-      <x:c r="I100" s="76"/>
+      <x:c r="C100" s="79" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D100" s="80"/>
+      <x:c r="E100" s="80"/>
+      <x:c r="F100" s="80"/>
+      <x:c r="G100" s="80"/>
+      <x:c r="H100" s="80"/>
+      <x:c r="I100" s="80"/>
       <x:c r="J100" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K100" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="3:11" ht="16.5" customHeight="1">
-      <x:c r="C101" s="89" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D101" s="86"/>
-      <x:c r="E101" s="86"/>
-      <x:c r="F101" s="86"/>
-      <x:c r="G101" s="86"/>
-      <x:c r="H101" s="86"/>
-      <x:c r="I101" s="86"/>
+      <x:c r="C101" s="96" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D101" s="90"/>
+      <x:c r="E101" s="90"/>
+      <x:c r="F101" s="90"/>
+      <x:c r="G101" s="90"/>
+      <x:c r="H101" s="90"/>
+      <x:c r="I101" s="90"/>
       <x:c r="J101" s="21"/>
       <x:c r="K101" s="17"/>
     </x:row>
     <x:row r="102" spans="3:11" ht="16.5" customHeight="1">
-      <x:c r="C102" s="90" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D102" s="91"/>
-      <x:c r="E102" s="91"/>
-      <x:c r="F102" s="91"/>
-      <x:c r="G102" s="91"/>
-      <x:c r="H102" s="91"/>
-      <x:c r="I102" s="91"/>
+      <x:c r="C102" s="97" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D102" s="98"/>
+      <x:c r="E102" s="98"/>
+      <x:c r="F102" s="98"/>
+      <x:c r="G102" s="98"/>
+      <x:c r="H102" s="98"/>
+      <x:c r="I102" s="98"/>
       <x:c r="J102" s="15"/>
       <x:c r="K102" s="6"/>
     </x:row>
     <x:row r="103" spans="3:11" ht="16.5" customHeight="1">
-      <x:c r="C103" s="112" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D103" s="110"/>
-      <x:c r="E103" s="110"/>
-      <x:c r="F103" s="110"/>
-      <x:c r="G103" s="110"/>
-      <x:c r="H103" s="110"/>
-      <x:c r="I103" s="111"/>
+      <x:c r="C103" s="120" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D103" s="118"/>
+      <x:c r="E103" s="118"/>
+      <x:c r="F103" s="118"/>
+      <x:c r="G103" s="118"/>
+      <x:c r="H103" s="118"/>
+      <x:c r="I103" s="119"/>
       <x:c r="J103" s="14"/>
       <x:c r="K103" s="6"/>
     </x:row>
     <x:row r="104" spans="3:11" ht="16.5" customHeight="1">
-      <x:c r="C104" s="99" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D104" s="78"/>
-      <x:c r="E104" s="78"/>
-      <x:c r="F104" s="78"/>
-      <x:c r="G104" s="78"/>
-      <x:c r="H104" s="78"/>
-      <x:c r="I104" s="78"/>
+      <x:c r="C104" s="107" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D104" s="82"/>
+      <x:c r="E104" s="82"/>
+      <x:c r="F104" s="82"/>
+      <x:c r="G104" s="82"/>
+      <x:c r="H104" s="82"/>
+      <x:c r="I104" s="82"/>
       <x:c r="J104" s="15"/>
       <x:c r="K104" s="6"/>
     </x:row>
     <x:row r="105" spans="3:11" ht="16.5" customHeight="1">
-      <x:c r="C105" s="99"/>
-      <x:c r="D105" s="78"/>
-      <x:c r="E105" s="78"/>
-      <x:c r="F105" s="78"/>
-      <x:c r="G105" s="78"/>
-      <x:c r="H105" s="78"/>
-      <x:c r="I105" s="78"/>
+      <x:c r="C105" s="107"/>
+      <x:c r="D105" s="82"/>
+      <x:c r="E105" s="82"/>
+      <x:c r="F105" s="82"/>
+      <x:c r="G105" s="82"/>
+      <x:c r="H105" s="82"/>
+      <x:c r="I105" s="82"/>
       <x:c r="J105" s="15"/>
       <x:c r="K105" s="6"/>
     </x:row>
+    <x:row r="107" spans="3:3">
+      <x:c r="C107" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
     <x:row r="108" spans="3:4" ht="16.75">
       <x:c r="C108" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D108" s="37" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="3:4">
       <x:c r="C109" s="23" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D109" s="46" t="s">
-        <x:v>67</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="3:11" ht="17.149999999999999">
-      <x:c r="C110" s="75" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D110" s="76"/>
-      <x:c r="E110" s="76"/>
-      <x:c r="F110" s="76"/>
-      <x:c r="G110" s="76"/>
-      <x:c r="H110" s="76"/>
-      <x:c r="I110" s="76"/>
+      <x:c r="C110" s="79" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D110" s="80"/>
+      <x:c r="E110" s="80"/>
+      <x:c r="F110" s="80"/>
+      <x:c r="G110" s="80"/>
+      <x:c r="H110" s="80"/>
+      <x:c r="I110" s="80"/>
       <x:c r="J110" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K110" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="3:11">
-      <x:c r="C111" s="89" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D111" s="86"/>
-      <x:c r="E111" s="86"/>
-      <x:c r="F111" s="86"/>
-      <x:c r="G111" s="86"/>
-      <x:c r="H111" s="86"/>
-      <x:c r="I111" s="86"/>
+      <x:c r="C111" s="96" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D111" s="90"/>
+      <x:c r="E111" s="90"/>
+      <x:c r="F111" s="90"/>
+      <x:c r="G111" s="90"/>
+      <x:c r="H111" s="90"/>
+      <x:c r="I111" s="90"/>
       <x:c r="J111" s="32"/>
       <x:c r="K111" s="17"/>
     </x:row>
     <x:row r="112" spans="3:11">
-      <x:c r="C112" s="90" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D112" s="91"/>
-      <x:c r="E112" s="91"/>
-      <x:c r="F112" s="91"/>
-      <x:c r="G112" s="91"/>
-      <x:c r="H112" s="91"/>
-      <x:c r="I112" s="91"/>
+      <x:c r="C112" s="97" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D112" s="98"/>
+      <x:c r="E112" s="98"/>
+      <x:c r="F112" s="98"/>
+      <x:c r="G112" s="98"/>
+      <x:c r="H112" s="98"/>
+      <x:c r="I112" s="98"/>
       <x:c r="J112" s="15"/>
       <x:c r="K112" s="6"/>
     </x:row>
     <x:row r="113" spans="3:11">
-      <x:c r="C113" s="77" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D113" s="78"/>
-      <x:c r="E113" s="78"/>
-      <x:c r="F113" s="78"/>
-      <x:c r="G113" s="78"/>
-      <x:c r="H113" s="78"/>
-      <x:c r="I113" s="78"/>
+      <x:c r="C113" s="81" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D113" s="82"/>
+      <x:c r="E113" s="82"/>
+      <x:c r="F113" s="82"/>
+      <x:c r="G113" s="82"/>
+      <x:c r="H113" s="82"/>
+      <x:c r="I113" s="82"/>
       <x:c r="J113" s="14"/>
       <x:c r="K113" s="6"/>
     </x:row>
     <x:row r="114" spans="3:11">
-      <x:c r="C114" s="77" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D114" s="78"/>
-      <x:c r="E114" s="78"/>
-      <x:c r="F114" s="78"/>
-      <x:c r="G114" s="78"/>
-      <x:c r="H114" s="78"/>
-      <x:c r="I114" s="78"/>
+      <x:c r="C114" s="81" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D114" s="82"/>
+      <x:c r="E114" s="82"/>
+      <x:c r="F114" s="82"/>
+      <x:c r="G114" s="82"/>
+      <x:c r="H114" s="82"/>
+      <x:c r="I114" s="82"/>
       <x:c r="J114" s="15"/>
       <x:c r="K114" s="6"/>
     </x:row>
     <x:row r="115" spans="3:11">
-      <x:c r="C115" s="99" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D115" s="78"/>
-      <x:c r="E115" s="78"/>
-      <x:c r="F115" s="78"/>
-      <x:c r="G115" s="78"/>
-      <x:c r="H115" s="78"/>
-      <x:c r="I115" s="78"/>
+      <x:c r="C115" s="107" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D115" s="82"/>
+      <x:c r="E115" s="82"/>
+      <x:c r="F115" s="82"/>
+      <x:c r="G115" s="82"/>
+      <x:c r="H115" s="82"/>
+      <x:c r="I115" s="82"/>
       <x:c r="J115" s="15"/>
       <x:c r="K115" s="6"/>
     </x:row>
     <x:row r="116" spans="3:11">
-      <x:c r="C116" s="99" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D116" s="78"/>
-      <x:c r="E116" s="78"/>
-      <x:c r="F116" s="78"/>
-      <x:c r="G116" s="78"/>
-      <x:c r="H116" s="78"/>
-      <x:c r="I116" s="78"/>
+      <x:c r="C116" s="107" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D116" s="82"/>
+      <x:c r="E116" s="82"/>
+      <x:c r="F116" s="82"/>
+      <x:c r="G116" s="82"/>
+      <x:c r="H116" s="82"/>
+      <x:c r="I116" s="82"/>
       <x:c r="J116" s="15"/>
       <x:c r="K116" s="6"/>
     </x:row>
     <x:row r="117" spans="3:11">
-      <x:c r="C117" s="99"/>
-      <x:c r="D117" s="78"/>
-      <x:c r="E117" s="78"/>
-      <x:c r="F117" s="78"/>
-      <x:c r="G117" s="78"/>
-      <x:c r="H117" s="78"/>
-      <x:c r="I117" s="78"/>
+      <x:c r="C117" s="107"/>
+      <x:c r="D117" s="82"/>
+      <x:c r="E117" s="82"/>
+      <x:c r="F117" s="82"/>
+      <x:c r="G117" s="82"/>
+      <x:c r="H117" s="82"/>
+      <x:c r="I117" s="82"/>
       <x:c r="J117" s="15"/>
       <x:c r="K117" s="6"/>
     </x:row>
@@ -4175,7 +4240,9 @@
       <x:c r="K120" s="31"/>
     </x:row>
     <x:row r="121" spans="3:11">
-      <x:c r="C121" s="30"/>
+      <x:c r="C121" s="30" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="D121" s="30"/>
       <x:c r="E121" s="30"/>
       <x:c r="F121" s="30"/>
@@ -4188,58 +4255,58 @@
     <x:row r="122" spans="1:4" ht="16.75">
       <x:c r="A122" s="41"/>
       <x:c r="C122" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D122" s="37" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="3:4">
       <x:c r="C123" s="23" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D123" s="46" t="s">
-        <x:v>20</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="3:11" ht="17.149999999999999">
-      <x:c r="C124" s="75" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D124" s="76"/>
-      <x:c r="E124" s="76"/>
-      <x:c r="F124" s="76"/>
-      <x:c r="G124" s="76"/>
-      <x:c r="H124" s="76"/>
-      <x:c r="I124" s="76"/>
+      <x:c r="C124" s="79" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D124" s="80"/>
+      <x:c r="E124" s="80"/>
+      <x:c r="F124" s="80"/>
+      <x:c r="G124" s="80"/>
+      <x:c r="H124" s="80"/>
+      <x:c r="I124" s="80"/>
       <x:c r="J124" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K124" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="3:11">
-      <x:c r="C125" s="85" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D125" s="86"/>
-      <x:c r="E125" s="86"/>
-      <x:c r="F125" s="86"/>
-      <x:c r="G125" s="86"/>
-      <x:c r="H125" s="86"/>
-      <x:c r="I125" s="86"/>
+      <x:c r="C125" s="89" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D125" s="90"/>
+      <x:c r="E125" s="90"/>
+      <x:c r="F125" s="90"/>
+      <x:c r="G125" s="90"/>
+      <x:c r="H125" s="90"/>
+      <x:c r="I125" s="90"/>
       <x:c r="J125" s="21"/>
       <x:c r="K125" s="17"/>
     </x:row>
     <x:row r="126" spans="3:11">
-      <x:c r="C126" s="113"/>
-      <x:c r="D126" s="91"/>
-      <x:c r="E126" s="91"/>
-      <x:c r="F126" s="91"/>
-      <x:c r="G126" s="91"/>
-      <x:c r="H126" s="91"/>
-      <x:c r="I126" s="91"/>
+      <x:c r="C126" s="121"/>
+      <x:c r="D126" s="98"/>
+      <x:c r="E126" s="98"/>
+      <x:c r="F126" s="98"/>
+      <x:c r="G126" s="98"/>
+      <x:c r="H126" s="98"/>
+      <x:c r="I126" s="98"/>
       <x:c r="J126" s="14"/>
       <x:c r="K126" s="6"/>
     </x:row>
@@ -4368,7 +4435,7 @@
     <x:mergeCell ref="C45:I45"/>
     <x:mergeCell ref="C76:I76"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>